--- a/wash_P/NZL.xlsx
+++ b/wash_P/NZL.xlsx
@@ -59874,7 +59874,7 @@
         <v>0</v>
       </c>
       <c r="MO19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MP19" t="n">
         <v>0</v>
@@ -65725,7 +65725,7 @@
         <v>0</v>
       </c>
       <c r="HJ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HK21" t="n">
         <v>0</v>
@@ -65812,7 +65812,7 @@
         <v>0</v>
       </c>
       <c r="IM21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IN21" t="n">
         <v>0</v>
@@ -81176,7 +81176,7 @@
         <v>0</v>
       </c>
       <c r="EY26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ26" t="n">
         <v>0</v>
@@ -84304,7 +84304,7 @@
         <v>0</v>
       </c>
       <c r="EY27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ27" t="n">
         <v>0</v>
@@ -87432,7 +87432,7 @@
         <v>0</v>
       </c>
       <c r="EY28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ28" t="n">
         <v>0</v>
@@ -90560,7 +90560,7 @@
         <v>0</v>
       </c>
       <c r="EY29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ29" t="n">
         <v>0</v>
